--- a/etude/resultStats.xlsx
+++ b/etude/resultStats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clem\Documents\Cours\bd\dernierprojet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lordi\Documents\MEGA\Cours\M1\S8\SGBD\b-tree\etude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C089600-C1F6-4961-92CD-CA42F2D96C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBB6F0C-4725-401E-BAC8-F79076243030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8175" yWindow="975" windowWidth="13290" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3075" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>rechercheArbre()</t>
   </si>
   <si>
-    <t>rechercheSequencielle()</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>rechercheArbreHomemade()</t>
+  </si>
+  <si>
+    <t>rechercheSequentielle()</t>
   </si>
 </sst>
 </file>
@@ -290,6 +290,3575 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Temps</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> de recherche moyen</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>rechercheArbreHomemade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Feuil1!$A$3:$A$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Feuil1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Feuil1!$B$3:$B$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Feuil1!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-24E2-4E4E-84AF-304E01C75BCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>rechercheArbre</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Feuil1!$A$3:$A$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Feuil1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Feuil1!$E$3:$E$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Feuil1!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1062</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1675</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-24E2-4E4E-84AF-304E01C75BCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>rechercheSequentielle</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Feuil1!$A$3:$A$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Feuil1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Feuil1!$H$3:$H$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Feuil1!$H$3:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-24E2-4E4E-84AF-304E01C75BCB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1807749088"/>
+        <c:axId val="1807752000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1807749088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Nombre de clefs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807752000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1807752000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Temps</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> de recherche (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807749088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Temps</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> de recherche maximal</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>rechercheArbreHomemade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD6B-4117-93C7-287C63997EF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>rechercheArbre</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$G$3:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9870</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38814</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD6B-4117-93C7-287C63997EF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>rechercheSequentielle</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$J$3:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BD6B-4117-93C7-287C63997EF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1807749088"/>
+        <c:axId val="1807752000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1807749088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Nombre de clefs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807752000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1807752000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="51000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Temps</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> de recherche (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807749088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Temps</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> de recherche minimal</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>rechercheArbreHomemade</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DA4-4174-906A-7672A1085085}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>rechercheArbre</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$3:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DA4-4174-906A-7672A1085085}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>rechercheSequentielle</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$I$3:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2DA4-4174-906A-7672A1085085}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1807749088"/>
+        <c:axId val="1807752000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1807749088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Nombre de clefs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807752000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1807752000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Temps</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> de recherche (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1807749088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4993AEE0-D225-47F3-929B-18586F0B4792}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9399CD3-950A-49B3-9B95-76EB4E487335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5351DAD5-BF5A-4E9C-AE54-24AD9162CB07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -555,8 +4124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
@@ -586,7 +4155,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="12"/>
       <c r="H1" s="10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="12"/>
@@ -594,31 +4163,31 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>5</v>
+      <c r="F2" s="14" t="s">
+        <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>5</v>
-      </c>
       <c r="I2" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -796,5 +4365,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>